--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -394,10 +394,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,18 +748,18 @@
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>56</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
